--- a/21BQ1A12A2-Manjusha Navuluri-CREDITSHEET.xlsx
+++ b/21BQ1A12A2-Manjusha Navuluri-CREDITSHEET.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2392910\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58A391E-0893-451D-BE6F-5E333421DE87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E058FE-65DF-4892-AC25-64C6BA746CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{47771C01-A614-4E7F-90DE-8113728C869F}"/>
   </bookViews>
@@ -574,9 +574,6 @@
     <t>COMMUNITY SERVICE PROJECT</t>
   </si>
   <si>
-    <t>Manjusha Navuluri</t>
-  </si>
-  <si>
     <t>21BQ1A12A2</t>
   </si>
   <si>
@@ -596,6 +593,9 @@
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navuluri Manjusha </t>
   </si>
 </sst>
 </file>
@@ -1372,8 +1372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA86006-1775-47AB-9B35-B45D08152C2E}">
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A47" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C5" s="59"/>
       <c r="D5" s="59"/>
@@ -1464,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="F7" s="61"/>
       <c r="G7" s="60" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H7" s="60"/>
     </row>
@@ -1544,7 +1544,7 @@
         <v>46</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D11" s="29">
         <v>3</v>
@@ -1591,7 +1591,7 @@
         <v>58</v>
       </c>
       <c r="G12" s="45" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H12" s="29">
         <v>3</v>
@@ -1614,7 +1614,7 @@
         <v>32</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D13" s="29">
         <v>3</v>
@@ -1626,7 +1626,7 @@
         <v>50</v>
       </c>
       <c r="G13" s="45" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H13" s="32">
         <v>3</v>
@@ -1649,7 +1649,7 @@
         <v>34</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D14" s="32">
         <v>3</v>
@@ -1661,7 +1661,7 @@
         <v>52</v>
       </c>
       <c r="G14" s="45" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H14" s="29">
         <v>3</v>
@@ -1684,7 +1684,7 @@
         <v>36</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D15" s="29">
         <v>3</v>
@@ -1696,7 +1696,7 @@
         <v>54</v>
       </c>
       <c r="G15" s="45" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H15" s="32">
         <v>3</v>
@@ -1719,7 +1719,7 @@
         <v>44</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D16" s="32">
         <v>1.5</v>
@@ -1731,7 +1731,7 @@
         <v>64</v>
       </c>
       <c r="G16" s="45" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H16" s="29">
         <v>1.5</v>
@@ -1754,7 +1754,7 @@
         <v>40</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D17" s="29">
         <v>1.5</v>
@@ -1766,7 +1766,7 @@
         <v>60</v>
       </c>
       <c r="G17" s="45" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H17" s="32">
         <v>1.5</v>
@@ -1789,7 +1789,7 @@
         <v>42</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D18" s="32">
         <v>1.5</v>
@@ -1801,7 +1801,7 @@
         <v>62</v>
       </c>
       <c r="G18" s="45" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H18" s="29">
         <v>1.5</v>
@@ -1824,7 +1824,7 @@
         <v>48</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D19" s="29">
         <v>0</v>
@@ -1836,7 +1836,7 @@
         <v>68</v>
       </c>
       <c r="G19" s="45" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H19" s="32">
         <v>0</v>
@@ -1863,7 +1863,7 @@
         <v>66</v>
       </c>
       <c r="G20" s="45" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H20" s="29">
         <v>0</v>
@@ -1957,7 +1957,7 @@
         <v>72</v>
       </c>
       <c r="C24" s="46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D24" s="32">
         <v>3</v>
@@ -1991,7 +1991,7 @@
         <v>74</v>
       </c>
       <c r="C25" s="46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D25" s="29">
         <v>3</v>
@@ -2003,7 +2003,7 @@
         <v>94</v>
       </c>
       <c r="G25" s="46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H25" s="32">
         <v>3</v>
@@ -2025,7 +2025,7 @@
         <v>76</v>
       </c>
       <c r="C26" s="46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D26" s="32">
         <v>3</v>
@@ -2059,7 +2059,7 @@
         <v>78</v>
       </c>
       <c r="C27" s="46" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D27" s="29">
         <v>3</v>
@@ -2093,7 +2093,7 @@
         <v>70</v>
       </c>
       <c r="C28" s="46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D28" s="32">
         <v>3</v>
@@ -2105,7 +2105,7 @@
         <v>92</v>
       </c>
       <c r="G28" s="46" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H28" s="29">
         <v>3</v>
@@ -2127,7 +2127,7 @@
         <v>86</v>
       </c>
       <c r="C29" s="46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D29" s="29">
         <v>2</v>
@@ -2139,7 +2139,7 @@
         <v>108</v>
       </c>
       <c r="G29" s="46" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H29" s="32">
         <v>2</v>
@@ -2161,7 +2161,7 @@
         <v>80</v>
       </c>
       <c r="C30" s="46" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D30" s="32">
         <v>1.5</v>
@@ -2173,7 +2173,7 @@
         <v>102</v>
       </c>
       <c r="G30" s="46" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H30" s="29">
         <v>1.5</v>
@@ -2195,7 +2195,7 @@
         <v>82</v>
       </c>
       <c r="C31" s="46" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D31" s="29">
         <v>1.5</v>
@@ -2207,7 +2207,7 @@
         <v>104</v>
       </c>
       <c r="G31" s="46" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H31" s="32">
         <v>1.5</v>
@@ -2229,7 +2229,7 @@
         <v>84</v>
       </c>
       <c r="C32" s="46" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D32" s="32">
         <v>1.5</v>
@@ -2241,7 +2241,7 @@
         <v>106</v>
       </c>
       <c r="G32" s="46" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H32" s="29">
         <v>1.5</v>
@@ -2263,7 +2263,7 @@
         <v>90</v>
       </c>
       <c r="C33" s="46" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D33" s="29">
         <v>0</v>
@@ -2275,7 +2275,7 @@
         <v>168</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H33" s="32">
         <v>0</v>
@@ -2294,7 +2294,7 @@
         <v>88</v>
       </c>
       <c r="C34" s="46" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D34" s="32">
         <v>0</v>
@@ -2388,7 +2388,7 @@
         <v>118</v>
       </c>
       <c r="C38" s="46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D38" s="32">
         <v>3</v>
@@ -2400,7 +2400,7 @@
         <v>138</v>
       </c>
       <c r="G38" s="46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H38" s="29">
         <v>3</v>
@@ -2422,7 +2422,7 @@
         <v>116</v>
       </c>
       <c r="C39" s="46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D39" s="29">
         <v>3</v>
@@ -2434,7 +2434,7 @@
         <v>170</v>
       </c>
       <c r="G39" s="46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H39" s="32">
         <v>3</v>
@@ -2456,7 +2456,7 @@
         <v>110</v>
       </c>
       <c r="C40" s="46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D40" s="32">
         <v>3</v>
@@ -2490,7 +2490,7 @@
         <v>112</v>
       </c>
       <c r="C41" s="46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D41" s="29">
         <v>3</v>
@@ -2502,7 +2502,7 @@
         <v>136</v>
       </c>
       <c r="G41" s="46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H41" s="32">
         <v>3</v>
@@ -2524,7 +2524,7 @@
         <v>114</v>
       </c>
       <c r="C42" s="46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D42" s="32">
         <v>3</v>
@@ -2536,7 +2536,7 @@
         <v>132</v>
       </c>
       <c r="G42" s="46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H42" s="29">
         <v>3</v>
@@ -2558,7 +2558,7 @@
         <v>124</v>
       </c>
       <c r="C43" s="46" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D43" s="29">
         <v>2</v>
@@ -2570,7 +2570,7 @@
         <v>146</v>
       </c>
       <c r="G43" s="46" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H43" s="32">
         <v>2</v>
@@ -2592,7 +2592,7 @@
         <v>120</v>
       </c>
       <c r="C44" s="46" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D44" s="32">
         <v>1.5</v>
@@ -2604,7 +2604,7 @@
         <v>140</v>
       </c>
       <c r="G44" s="46" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H44" s="29">
         <v>1.5</v>
@@ -2626,7 +2626,7 @@
         <v>122</v>
       </c>
       <c r="C45" s="46" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D45" s="29">
         <v>1.5</v>
@@ -2638,7 +2638,7 @@
         <v>142</v>
       </c>
       <c r="G45" s="46" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H45" s="32">
         <v>1.5</v>
@@ -2660,7 +2660,7 @@
         <v>126</v>
       </c>
       <c r="C46" s="46" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D46" s="32">
         <v>1.5</v>
@@ -2672,7 +2672,7 @@
         <v>144</v>
       </c>
       <c r="G46" s="46" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H46" s="29">
         <v>1.5</v>
@@ -2694,7 +2694,7 @@
         <v>128</v>
       </c>
       <c r="C47" s="46" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D47" s="29">
         <v>0</v>
@@ -2706,7 +2706,7 @@
         <v>150</v>
       </c>
       <c r="G47" s="46" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H47" s="32">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>130</v>
       </c>
       <c r="C48" s="46" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D48" s="32">
         <v>0</v>
@@ -2740,7 +2740,7 @@
         <v>148</v>
       </c>
       <c r="G48" s="46" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H48" s="29">
         <v>0</v>
@@ -2869,7 +2869,7 @@
         <v>160</v>
       </c>
       <c r="C55" s="46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D55" s="32">
         <v>3</v>
@@ -2881,7 +2881,7 @@
         <v>173</v>
       </c>
       <c r="G55" s="48" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H55" s="39">
         <v>8</v>
@@ -2903,7 +2903,7 @@
         <v>158</v>
       </c>
       <c r="C56" s="46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D56" s="29">
         <v>3</v>
@@ -2915,7 +2915,7 @@
         <v>174</v>
       </c>
       <c r="G56" s="48" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H56" s="39">
         <v>4</v>
@@ -2937,7 +2937,7 @@
         <v>172</v>
       </c>
       <c r="C57" s="46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D57" s="32">
         <v>3</v>
@@ -2963,7 +2963,7 @@
         <v>154</v>
       </c>
       <c r="C58" s="46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D58" s="29">
         <v>3</v>
@@ -2989,7 +2989,7 @@
         <v>156</v>
       </c>
       <c r="C59" s="47" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D59" s="32">
         <v>3</v>
@@ -3015,7 +3015,7 @@
         <v>164</v>
       </c>
       <c r="C60" s="46" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D60" s="29">
         <v>3</v>
@@ -3038,7 +3038,7 @@
         <v>152</v>
       </c>
       <c r="C61" s="46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D61" s="32">
         <v>3</v>
@@ -3061,7 +3061,7 @@
         <v>162</v>
       </c>
       <c r="C62" s="46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D62" s="29">
         <v>2</v>
